--- a/B/TranslationTable.xlsx
+++ b/B/TranslationTable.xlsx
@@ -1,70 +1,265 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PycharmProjects\CopyBtoA\venv\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tool\CopyTool\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{406292EA-49A7-44F6-801D-1A3696D0265C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C78BB9-A9CE-4683-A047-42B05D125CFA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$O$26</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="109">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ShareID</t>
+  </si>
+  <si>
+    <t>NumberID</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>LANGKEY</t>
+  </si>
+  <si>
+    <t>CNS</t>
+  </si>
+  <si>
+    <t>CNT</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>shared_id</t>
-  </si>
-  <si>
-    <t>number_id</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>descriptions</t>
-  </si>
-  <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>lang_key</t>
-  </si>
-  <si>
-    <t>CHS</t>
-  </si>
-  <si>
-    <t>CHT</t>
-  </si>
-  <si>
-    <t>ENG</t>
+    <t>当文本第二次出现时，显示他公用的ID</t>
+  </si>
+  <si>
+    <t>隐藏</t>
+  </si>
+  <si>
+    <t>历史版本</t>
+  </si>
+  <si>
+    <t>策划名</t>
+  </si>
+  <si>
+    <t>中文系统名</t>
+  </si>
+  <si>
+    <t>英文系统名</t>
+  </si>
+  <si>
+    <t>专有名词</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>原始文案</t>
+  </si>
+  <si>
+    <t>简体中文</t>
+  </si>
+  <si>
+    <t>繁体中文</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Arms#name#infantry</t>
+  </si>
+  <si>
+    <t>达峰</t>
+  </si>
+  <si>
+    <t>兵种</t>
+  </si>
+  <si>
+    <t>枪支</t>
+  </si>
+  <si>
+    <t>Share ID</t>
+  </si>
+  <si>
+    <t>Arms#name#artillery</t>
+  </si>
+  <si>
+    <t>火炮</t>
+  </si>
+  <si>
+    <t>Arms#name#tank</t>
+  </si>
+  <si>
+    <t>坦克</t>
+  </si>
+  <si>
+    <t>Arms#name#tank_destroyer</t>
+  </si>
+  <si>
+    <t>坦歼</t>
+  </si>
+  <si>
+    <t>Arms#troop_name#tank_destroyer</t>
+  </si>
+  <si>
+    <t>Arms#troop_name#infantry</t>
+  </si>
+  <si>
+    <t>步兵</t>
+  </si>
+  <si>
+    <t>Arms#troop_name#artillery</t>
+  </si>
+  <si>
+    <t>炮兵</t>
+  </si>
+  <si>
+    <t>Bubble#title#1</t>
+  </si>
+  <si>
+    <t>潘潘</t>
+  </si>
+  <si>
+    <t>主界面UI</t>
+  </si>
+  <si>
+    <t>胜利！</t>
+  </si>
+  <si>
+    <t>Bubble#content#1</t>
+  </si>
+  <si>
+    <t>Bubble#title#2</t>
+  </si>
+  <si>
+    <t>失败！</t>
+  </si>
+  <si>
+    <t>Bubble#content#2</t>
+  </si>
+  <si>
+    <t>Bubble#title#3</t>
+  </si>
+  <si>
+    <t>晋升${military_id} (${task_num}/${task_num_all})</t>
+  </si>
+  <si>
+    <t>Bubble#content#3</t>
+  </si>
+  <si>
+    <t>ConstantText#simplified_chinese#military_ui_4</t>
+  </si>
+  <si>
+    <t>Bubble#title#4</t>
+  </si>
+  <si>
+    <t>升级成功！</t>
+  </si>
+  <si>
+    <t>Bubble#title#5</t>
+  </si>
+  <si>
+    <t>科技研究完成！</t>
+  </si>
+  <si>
+    <t>Bubble#content#5</t>
+  </si>
+  <si>
+    <t>Bubble#title#6</t>
+  </si>
+  <si>
+    <t>Bubble#content#6</t>
+  </si>
+  <si>
+    <t>Bubble#title#7</t>
+  </si>
+  <si>
+    <t>军官升级</t>
+  </si>
+  <si>
+    <t>Bubble#content#7</t>
+  </si>
+  <si>
+    <t>ResourceBasic#item_name#officer_levelup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>VI</t>
   </si>
   <si>
     <t>FR</t>
   </si>
   <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>NL</t>
+    <t>DE</t>
   </si>
   <si>
     <t>IT</t>
@@ -82,40 +277,25 @@
     <t>AR</t>
   </si>
   <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
     <t>TR</t>
   </si>
   <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>当文本第二次出现时，显示他公用的ID</t>
-  </si>
-  <si>
-    <t>历史版本</t>
-  </si>
-  <si>
-    <t>系统名-策划名</t>
-  </si>
-  <si>
-    <t>专有名词</t>
-  </si>
-  <si>
-    <t>原始文案</t>
-  </si>
-  <si>
-    <t>简体中文</t>
-  </si>
-  <si>
-    <t>繁体中文</t>
-  </si>
-  <si>
-    <t>英文</t>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>韩语</t>
+  </si>
+  <si>
+    <t>日语</t>
+  </si>
+  <si>
+    <t>泰语</t>
+  </si>
+  <si>
+    <t>印尼语</t>
+  </si>
+  <si>
+    <t>越南语</t>
   </si>
   <si>
     <t>法语</t>
@@ -124,15 +304,6 @@
     <t>德语</t>
   </si>
   <si>
-    <t>日语</t>
-  </si>
-  <si>
-    <t>韩语</t>
-  </si>
-  <si>
-    <t>荷兰语</t>
-  </si>
-  <si>
     <t>意大利语</t>
   </si>
   <si>
@@ -148,165 +319,37 @@
     <t>阿拉伯语</t>
   </si>
   <si>
-    <t>泰语</t>
-  </si>
-  <si>
-    <t>印尼语</t>
-  </si>
-  <si>
     <t>土耳其语</t>
   </si>
   <si>
-    <t>越南语</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Task#task_desc#1</t>
-  </si>
-  <si>
-    <t>潘潘-任务</t>
-  </si>
-  <si>
-    <t>建造${task_aim_num}座兵营，解锁兵种【步兵】和【火炮】</t>
-  </si>
-  <si>
-    <t>Task#task_desc#2</t>
-  </si>
-  <si>
-    <t>经济发展：建造${task_aim_num}座民居</t>
-  </si>
-  <si>
-    <t>Task#task_desc#3</t>
-  </si>
-  <si>
-    <t>基地升级：主基地升级至${task_aim_num}级</t>
-  </si>
-  <si>
-    <t>Task#task_desc#11</t>
-  </si>
-  <si>
-    <t>经济发展：建造${task_aim_num}座炼钢厂</t>
-  </si>
-  <si>
-    <t>Task#task_desc#12</t>
-  </si>
-  <si>
-    <t>科技发展：建造${task_aim_num}座工业实验室</t>
-  </si>
-  <si>
-    <t>Task#task_desc#13</t>
-  </si>
-  <si>
-    <t>Task#task_desc#14</t>
-  </si>
-  <si>
-    <t>科技发展：工业实验室研究${task_aim_num}次科技</t>
-  </si>
-  <si>
-    <t>Task#task_desc#15</t>
-  </si>
-  <si>
-    <t>Task#task_desc#16</t>
-  </si>
-  <si>
-    <t>Task#task_desc#17</t>
-  </si>
-  <si>
-    <t>经济发展：将民居升至${task_aim_num}级</t>
-  </si>
-  <si>
-    <t>Task#task_desc#18</t>
-  </si>
-  <si>
-    <t>经济发展：将炼钢厂升至${task_aim_num}级</t>
-  </si>
-  <si>
-    <t>Task#task_desc#19</t>
-  </si>
-  <si>
-    <t>生产黄金：从民居收集${task_aim_num}黄金</t>
-  </si>
-  <si>
-    <t>sddc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdasd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ignore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qwew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vvvvv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fffff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dwdwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cece</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vvvv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wewe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dwwd</t>
+    <t>波兰语</t>
+  </si>
+  <si>
+    <t>above empty</t>
+  </si>
+  <si>
+    <t>below space</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>新邮件到达B</t>
+  </si>
+  <si>
+    <t>BKEY</t>
+  </si>
+  <si>
+    <t>Bubble#title#7B</t>
+  </si>
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>BSHARE</t>
+  </si>
+  <si>
+    <t>SheetID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -350,8 +393,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -654,28 +698,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.25" customWidth="1"/>
-    <col min="2" max="2" width="47.625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="5" width="9" customWidth="1"/>
-    <col min="6" max="7" width="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1"/>
-    <col min="12" max="12" width="39.75" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="3" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="15" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -684,546 +724,1617 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
+      <c r="U1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" t="s">
-        <v>15</v>
-      </c>
       <c r="V1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="W1" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="X1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="Y1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="Z1" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="AA1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="AB1" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="AC1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>19886</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>415</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="W2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="X2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="Y2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="Z2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AB2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="W3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="X3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AA3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AB3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="W4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
+        <v>10642</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
+        <v>10643</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" t="s">
-        <v>54</v>
+        <v>39</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
-        <v>51</v>
+      <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" t="s">
-        <v>88</v>
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" t="s">
-        <v>88</v>
-      </c>
-      <c r="P8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
+        <v>14113</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" t="s">
-        <v>84</v>
+        <v>46</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>73</v>
+        <v>14114</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" t="s">
+        <v>18010</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
         <v>51</v>
       </c>
-      <c r="J12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
-        <v>74</v>
+      <c r="H12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="L12" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" t="s">
-        <v>85</v>
+        <v>52</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
-        <v>78</v>
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
+        <v>18011</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
         <v>51</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="L14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>18602</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19">
+        <v>18603</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24">
+        <v>10655</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>70</v>
       </c>
-      <c r="C16">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>71</v>
       </c>
-      <c r="M16" t="s">
-        <v>71</v>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>